--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1413.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1413.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.460873157723414</v>
+        <v>1.210238695144653</v>
       </c>
       <c r="B1">
-        <v>2.045830343517739</v>
+        <v>1.435527801513672</v>
       </c>
       <c r="C1">
-        <v>2.347592421285023</v>
+        <v>6.898724555969238</v>
       </c>
       <c r="D1">
-        <v>2.682396852363377</v>
+        <v>2.18938422203064</v>
       </c>
       <c r="E1">
-        <v>3.35033416901849</v>
+        <v>1.17006778717041</v>
       </c>
     </row>
   </sheetData>
